--- a/spreadsheets/game_collection.xlsx
+++ b/spreadsheets/game_collection.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="332">
   <si>
     <t>Title</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Starhawk</t>
+  </si>
+  <si>
+    <t>Webwarp</t>
   </si>
   <si>
     <t>Batman</t>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1053,6 +1056,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -1074,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1086,6 +1090,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,7 +1542,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1631,7 +1638,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -1642,7 +1649,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1653,7 +1660,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -1664,7 +1671,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1675,7 +1682,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -1686,7 +1693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -1697,7 +1704,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1708,7 +1715,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1719,7 +1726,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1730,7 +1737,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -1741,7 +1748,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1752,7 +1759,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1763,7 +1770,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -1774,7 +1781,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -1785,7 +1792,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1796,7 +1803,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1806,8 +1813,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>125</v>
+      <c r="A18" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -1818,7 +1825,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -1829,7 +1836,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -1840,7 +1847,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1851,7 +1858,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -1862,7 +1869,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1873,7 +1880,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -1884,7 +1891,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1895,7 +1902,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -1906,7 +1913,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -1917,7 +1924,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -1928,7 +1935,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -1939,7 +1946,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -1950,7 +1957,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -1961,7 +1968,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -1972,7 +1979,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -1983,7 +1990,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -1994,7 +2001,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2005,7 +2012,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -2016,7 +2023,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -2027,7 +2034,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -2038,10 +2045,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
@@ -2079,7 +2086,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2090,7 +2097,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2101,7 +2108,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2112,7 +2119,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2123,7 +2130,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2134,7 +2141,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2145,7 +2152,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2156,7 +2163,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2167,7 +2174,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2178,7 +2185,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2189,7 +2196,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2200,7 +2207,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2211,7 +2218,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2222,7 +2229,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2233,7 +2240,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2244,7 +2251,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2255,7 +2262,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2266,7 +2273,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2277,7 +2284,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2288,7 +2295,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2299,7 +2306,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2310,7 +2317,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2321,7 +2328,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2332,7 +2339,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2343,7 +2350,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2354,7 +2361,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2365,7 +2372,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2376,7 +2383,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2387,7 +2394,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2398,7 +2405,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2409,7 +2416,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2449,7 +2456,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2489,7 +2496,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2500,7 +2507,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2511,7 +2518,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2522,7 +2529,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2533,7 +2540,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2544,7 +2551,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2555,7 +2562,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2566,7 +2573,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2606,7 +2613,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2617,7 +2624,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2628,7 +2635,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2639,7 +2646,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2650,7 +2657,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2661,7 +2668,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2672,7 +2679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2683,7 +2690,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2694,7 +2701,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2705,7 +2712,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2716,7 +2723,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2727,7 +2734,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2738,7 +2745,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2749,7 +2756,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2760,7 +2767,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2771,7 +2778,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2782,7 +2789,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2793,7 +2800,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2804,7 +2811,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2815,7 +2822,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2826,7 +2833,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2837,7 +2844,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2848,7 +2855,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2859,7 +2866,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2870,7 +2877,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2881,7 +2888,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2892,7 +2899,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2903,7 +2910,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2914,7 +2921,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2925,7 +2932,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2936,7 +2943,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2947,7 +2954,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -2958,7 +2965,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2969,7 +2976,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2980,7 +2987,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -2991,7 +2998,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -3002,7 +3009,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -3013,7 +3020,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -3024,7 +3031,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -3035,7 +3042,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3046,7 +3053,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -3057,7 +3064,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -3068,7 +3075,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3079,7 +3086,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -3090,7 +3097,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -3101,7 +3108,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -3112,7 +3119,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -3123,7 +3130,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -3134,7 +3141,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -3145,7 +3152,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -3156,7 +3163,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -3167,7 +3174,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -3204,7 +3211,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3215,7 +3222,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3255,7 +3262,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3266,7 +3273,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3277,7 +3284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3288,7 +3295,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3299,7 +3306,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3310,7 +3317,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3321,7 +3328,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3332,7 +3339,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3343,7 +3350,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3354,7 +3361,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3365,7 +3372,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3406,7 +3413,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3417,7 +3424,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3428,7 +3435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -3439,7 +3446,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3450,7 +3457,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3461,7 +3468,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3472,7 +3479,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3482,8 +3489,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>255</v>
+      <c r="A9" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3494,7 +3501,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -3505,7 +3512,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3516,7 +3523,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -3527,7 +3534,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -3567,7 +3574,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3578,7 +3585,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3618,7 +3625,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3629,7 +3636,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3639,8 +3646,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>264</v>
+      <c r="A4" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3651,7 +3658,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3662,7 +3669,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3673,7 +3680,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3684,7 +3691,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3695,7 +3702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3706,7 +3713,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3717,7 +3724,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3728,7 +3735,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3739,7 +3746,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3750,7 +3757,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -3761,7 +3768,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -3772,10 +3779,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -3814,10 +3821,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3847,7 +3854,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3858,7 +3865,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3869,7 +3876,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3877,6 +3884,17 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +3928,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3921,7 +3939,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3932,7 +3950,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3943,7 +3961,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3954,7 +3972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3965,7 +3983,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3976,7 +3994,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3987,7 +4005,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3998,7 +4016,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4009,7 +4027,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4020,7 +4038,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4031,7 +4049,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -4042,7 +4060,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -4053,7 +4071,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -4064,7 +4082,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -4075,7 +4093,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4086,7 +4104,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4097,7 +4115,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4108,7 +4126,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -4119,7 +4137,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -4130,7 +4148,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -4170,7 +4188,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4181,7 +4199,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4192,7 +4210,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4203,7 +4221,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4214,7 +4232,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4225,7 +4243,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4236,7 +4254,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4247,7 +4265,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4258,7 +4276,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4298,7 +4316,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4309,7 +4327,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -4320,7 +4338,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4331,7 +4349,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4342,7 +4360,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4353,7 +4371,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -4364,7 +4382,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -4404,7 +4422,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4415,7 +4433,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4426,7 +4444,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4467,7 +4485,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4478,7 +4496,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4489,7 +4507,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4500,7 +4518,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4511,7 +4529,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4522,7 +4540,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4533,7 +4551,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4544,7 +4562,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4555,7 +4573,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4566,7 +4584,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4577,7 +4595,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4617,7 +4635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4628,7 +4646,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4639,7 +4657,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4650,7 +4668,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4661,7 +4679,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4672,7 +4690,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4712,7 +4730,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4723,7 +4741,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -4734,7 +4752,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4745,7 +4763,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4756,7 +4774,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4766,8 +4784,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
+      <c r="A7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4777,8 +4795,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
+      <c r="A8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -4789,7 +4807,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4799,8 +4817,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
+      <c r="A10" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4811,9 +4829,9 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4822,7 +4840,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -4833,7 +4851,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -4844,7 +4862,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -4855,7 +4873,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -4866,7 +4884,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -4877,7 +4895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4887,8 +4905,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
+      <c r="A18" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -4899,7 +4917,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4910,7 +4928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -4920,8 +4938,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
+      <c r="A21" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -4932,7 +4950,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -4943,7 +4961,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -4954,7 +4972,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -4965,7 +4983,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -4975,8 +4993,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
+      <c r="A26" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -4986,8 +5004,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
+      <c r="A27" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -5027,7 +5045,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5038,7 +5056,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -5078,7 +5096,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5089,7 +5107,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -5100,7 +5118,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -5111,7 +5129,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -5122,7 +5140,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -5133,7 +5151,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -5144,7 +5162,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -5155,7 +5173,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -5166,7 +5184,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -5177,7 +5195,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5188,7 +5206,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -5199,7 +5217,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -5210,7 +5228,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -5221,7 +5239,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -5232,7 +5250,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -5243,7 +5261,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -5254,7 +5272,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -5265,7 +5283,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -5276,7 +5294,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -5287,7 +5305,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -5298,7 +5316,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -5309,7 +5327,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -5320,7 +5338,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -5331,7 +5349,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -5342,7 +5360,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -5353,7 +5371,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -5364,7 +5382,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -5375,7 +5393,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -5386,7 +5404,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -5397,7 +5415,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -5408,7 +5426,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -5419,7 +5437,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -5430,7 +5448,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -5470,7 +5488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5510,7 +5528,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5521,7 +5539,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -5532,7 +5550,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -5543,7 +5561,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -5554,7 +5572,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -5565,7 +5583,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5576,7 +5594,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -5586,19 +5604,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -5609,7 +5627,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5620,7 +5638,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -5631,7 +5649,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -5671,7 +5689,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5682,7 +5700,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -5722,7 +5740,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5733,7 +5751,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -5744,7 +5762,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -5755,7 +5773,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -5766,7 +5784,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -5777,7 +5795,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -5788,7 +5806,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -5799,7 +5817,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>

--- a/spreadsheets/game_collection.xlsx
+++ b/spreadsheets/game_collection.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="333">
   <si>
     <t>Title</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Last Blade</t>
+  </si>
+  <si>
+    <t>Last Blade 2</t>
   </si>
   <si>
     <t>Metal Slug</t>
@@ -1638,7 +1641,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1803,7 +1806,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1858,7 +1861,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -1946,7 +1949,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -1990,7 +1993,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2001,7 +2004,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2012,7 +2015,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -2034,7 +2037,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -2045,10 +2048,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2130,7 +2133,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2141,7 +2144,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2152,7 +2155,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2174,7 +2177,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2196,7 +2199,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2207,7 +2210,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2240,7 +2243,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2284,7 +2287,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2328,7 +2331,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2394,7 +2397,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2456,7 +2459,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2551,7 +2554,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -2668,7 +2671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -2690,7 +2693,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -2712,7 +2715,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -2767,7 +2770,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2844,7 +2847,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2932,7 +2935,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -2965,7 +2968,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -2998,7 +3001,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -3020,7 +3023,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -3141,7 +3144,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -3163,7 +3166,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -3211,7 +3214,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3222,7 +3225,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3328,7 +3331,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3339,7 +3342,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3413,7 +3416,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3479,7 +3482,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3490,7 +3493,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3501,7 +3504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -3512,7 +3515,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -3574,7 +3577,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3585,7 +3588,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3636,7 +3639,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3647,7 +3650,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -3713,7 +3716,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3735,7 +3738,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -3768,7 +3771,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -3779,10 +3782,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -3950,7 +3953,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -3972,7 +3975,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4005,7 +4008,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4027,7 +4030,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -4060,7 +4063,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -4071,7 +4074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4104,7 +4107,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4115,7 +4118,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4126,7 +4129,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -4137,7 +4140,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -4148,7 +4151,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -4188,7 +4191,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4210,7 +4213,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4221,7 +4224,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4232,7 +4235,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4254,7 +4257,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4265,7 +4268,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4276,7 +4279,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4316,7 +4319,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4327,7 +4330,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -4338,7 +4341,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4349,7 +4352,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4371,7 +4374,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -4382,7 +4385,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -4422,7 +4425,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4433,7 +4436,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4496,7 +4499,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4507,7 +4510,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4518,7 +4521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -4562,7 +4565,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -4573,7 +4576,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -4595,7 +4598,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -4635,7 +4638,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4646,7 +4649,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -4668,7 +4671,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -4679,7 +4682,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -5761,8 +5764,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>104</v>
+      <c r="A4" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -5784,7 +5787,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -5795,7 +5798,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -5806,7 +5809,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -5817,7 +5820,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
